--- a/EP_05_2024_2/Revisao_envio/ENVIO/Revisao_Todos_EP_05.xlsx
+++ b/EP_05_2024_2/Revisao_envio/ENVIO/Revisao_Todos_EP_05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natnael\Downloads\AC II\EP05_2024_2\EP05_2024_2\Envio Gabriel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD97075-BCD8-4D5A-9A36-C7BBA0FB658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC9D154-DFB9-4D7E-AF9A-962EDD14AB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{45EE2332-9A8F-4D13-8CF3-A1B4F6403B00}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="55">
   <si>
     <t>Tempo Apurado (ms)</t>
   </si>
@@ -152,6 +152,57 @@
   <si>
     <t>Desktop  10 vezes com 1x10^7 instruções</t>
   </si>
+  <si>
+    <t>Welbert</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Maurício</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( i = i op 3 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( i = i op j )</t>
+  </si>
+  <si>
+    <t>Use para o teste</t>
+  </si>
+  <si>
+    <t>CPI Médio</t>
+  </si>
+  <si>
+    <t>Frequência(Ghz)</t>
+  </si>
+  <si>
+    <t>Núcleos</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPUtime = 10x 10^6 *CPI * 1 /f x 10^6 </t>
+  </si>
+  <si>
+    <t>CPU TIME</t>
+  </si>
+  <si>
+    <t>Baseado no CPI Médio do Int</t>
+  </si>
+  <si>
+    <t>Baseado no CPI Médio do Float</t>
+  </si>
 </sst>
 </file>
 
@@ -185,7 +236,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +387,56 @@
         <bgColor rgb="FFF6F9D4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -397,13 +496,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
@@ -638,19 +774,61 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -659,10 +837,25 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -674,10 +867,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,70 +891,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1281,13 +1532,1024 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FEDDE7-FBFA-44F9-B184-48EEB84575C0}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B3:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="87"/>
+    <col min="2" max="2" width="11" style="87" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="87"/>
+    <col min="4" max="4" width="10.42578125" style="87" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="87" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="87"/>
+    <col min="7" max="7" width="12" style="87" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="87" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="87"/>
+    <col min="11" max="11" width="2.140625" style="87" customWidth="1"/>
+    <col min="12" max="12" width="12" style="87" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="87"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C4" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="109"/>
+      <c r="E4" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C5" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="135"/>
+      <c r="E5" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="68"/>
+      <c r="L5" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="144" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="144"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="79">
+        <v>2.6</v>
+      </c>
+      <c r="E6" s="76">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="76">
+        <v>3.6</v>
+      </c>
+      <c r="G6" s="76">
+        <v>1.4</v>
+      </c>
+      <c r="H6" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="76">
+        <v>5.5</v>
+      </c>
+      <c r="J6" s="76">
+        <v>3.8</v>
+      </c>
+      <c r="K6" s="68"/>
+      <c r="L6" s="79">
+        <v>3</v>
+      </c>
+      <c r="M6" s="80">
+        <v>6.2</v>
+      </c>
+      <c r="N6" s="80">
+        <v>4</v>
+      </c>
+      <c r="O6" s="79">
+        <v>3.1</v>
+      </c>
+      <c r="P6" s="79">
+        <v>8.1</v>
+      </c>
+      <c r="Q6" s="79">
+        <v>6.4</v>
+      </c>
+      <c r="S6" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="159" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="160" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="161">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E7" s="161">
+        <v>2</v>
+      </c>
+      <c r="F7" s="161">
+        <v>3.2</v>
+      </c>
+      <c r="G7" s="161">
+        <v>3.2</v>
+      </c>
+      <c r="H7" s="161">
+        <v>3.2</v>
+      </c>
+      <c r="I7" s="161">
+        <v>4.7</v>
+      </c>
+      <c r="J7" s="161">
+        <v>6.3</v>
+      </c>
+      <c r="K7" s="68"/>
+      <c r="L7" s="161">
+        <v>6.6</v>
+      </c>
+      <c r="M7" s="162">
+        <v>7.8</v>
+      </c>
+      <c r="N7" s="162">
+        <v>7.8</v>
+      </c>
+      <c r="O7" s="161">
+        <v>7.8</v>
+      </c>
+      <c r="P7" s="161">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Q7" s="161">
+        <v>10.9</v>
+      </c>
+      <c r="S7" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="145">
+        <v>10</v>
+      </c>
+      <c r="U7" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="V7" s="89">
+        <f>E24</f>
+        <v>3.637833333333333</v>
+      </c>
+      <c r="W7" s="89">
+        <v>1</v>
+      </c>
+      <c r="X7" s="89">
+        <v>2300</v>
+      </c>
+      <c r="Y7" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="Z7" s="89">
+        <f>T7*U7*V7*(W7/(X7*Y7))</f>
+        <v>1.5816666666666663E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="95">
+        <v>5.4</v>
+      </c>
+      <c r="E8" s="95">
+        <f>L8-D8</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="F8" s="95">
+        <f>M8-D8</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="G8" s="95">
+        <f>N8-D8</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="H8" s="95">
+        <f>O8-D8</f>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="I8" s="95">
+        <f>P8-D8</f>
+        <v>2.7999999999999989</v>
+      </c>
+      <c r="J8" s="95">
+        <f>Q8-D8</f>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="K8" s="68"/>
+      <c r="L8" s="95">
+        <v>6.7</v>
+      </c>
+      <c r="M8" s="95">
+        <v>6.7</v>
+      </c>
+      <c r="N8" s="95">
+        <v>5.7</v>
+      </c>
+      <c r="O8" s="95">
+        <v>7.1</v>
+      </c>
+      <c r="P8" s="95">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q8" s="95">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R8" s="143"/>
+      <c r="S8" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="145">
+        <v>10</v>
+      </c>
+      <c r="U8" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="V8" s="89">
+        <f>E23</f>
+        <v>1.7226666666666668</v>
+      </c>
+      <c r="W8" s="89">
+        <v>1</v>
+      </c>
+      <c r="X8" s="89">
+        <v>3800</v>
+      </c>
+      <c r="Y8" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="Z8" s="89">
+        <f t="shared" ref="Z8:Z15" si="0">T8*U8*V8*(W8/(X8*Y8))</f>
+        <v>4.5333333333333337E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="159" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="160" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="161">
+        <v>11.5</v>
+      </c>
+      <c r="E9" s="161">
+        <v>11.2</v>
+      </c>
+      <c r="F9" s="161">
+        <v>11.3</v>
+      </c>
+      <c r="G9" s="161">
+        <v>15.899999999999999</v>
+      </c>
+      <c r="H9" s="161">
+        <v>12.399999999999999</v>
+      </c>
+      <c r="I9" s="161">
+        <v>12</v>
+      </c>
+      <c r="J9" s="161">
+        <v>20.6</v>
+      </c>
+      <c r="K9" s="68"/>
+      <c r="L9" s="161">
+        <v>22.7</v>
+      </c>
+      <c r="M9" s="162">
+        <v>22.8</v>
+      </c>
+      <c r="N9" s="162">
+        <v>27.4</v>
+      </c>
+      <c r="O9" s="161">
+        <v>23.9</v>
+      </c>
+      <c r="P9" s="161">
+        <v>23.5</v>
+      </c>
+      <c r="Q9" s="161">
+        <v>32.1</v>
+      </c>
+      <c r="R9" s="142"/>
+      <c r="S9" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="145">
+        <v>10</v>
+      </c>
+      <c r="U9" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="V9" s="89">
+        <f>E21</f>
+        <v>1.1251666666666664</v>
+      </c>
+      <c r="W9" s="89">
+        <v>1</v>
+      </c>
+      <c r="X9" s="89">
+        <v>4300</v>
+      </c>
+      <c r="Y9" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="Z9" s="89">
+        <f t="shared" si="0"/>
+        <v>2.616666666666666E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="K10" s="68"/>
+      <c r="S10" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="145">
+        <v>10</v>
+      </c>
+      <c r="U10" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="V10" s="89">
+        <f>E22</f>
+        <v>1.3646666666666665</v>
+      </c>
+      <c r="W10" s="89">
+        <v>1</v>
+      </c>
+      <c r="X10" s="89">
+        <v>4600</v>
+      </c>
+      <c r="Y10" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="Z10" s="89">
+        <f t="shared" si="0"/>
+        <v>2.9666666666666661E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G11" s="136" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="136" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="138"/>
+      <c r="S11" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" s="119"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="119"/>
+      <c r="Y11" s="119"/>
+      <c r="Z11" s="119"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="E12" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="133"/>
+      <c r="G12" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="131"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="129"/>
+      <c r="N12" s="130" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="131"/>
+      <c r="S12" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" s="145">
+        <v>10</v>
+      </c>
+      <c r="U12" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="V12" s="89">
+        <f>H22</f>
+        <v>7.2104999999999997</v>
+      </c>
+      <c r="W12" s="89">
+        <v>1</v>
+      </c>
+      <c r="X12" s="89">
+        <v>2300</v>
+      </c>
+      <c r="Y12" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="Z12" s="89">
+        <f t="shared" si="0"/>
+        <v>3.1349999999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="E13" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="135"/>
+      <c r="G13" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="68"/>
+      <c r="L13" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="145">
+        <v>10</v>
+      </c>
+      <c r="U13" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="V13" s="89">
+        <f>H21</f>
+        <v>6.9977</v>
+      </c>
+      <c r="W13" s="89">
+        <v>1</v>
+      </c>
+      <c r="X13" s="89">
+        <v>3800</v>
+      </c>
+      <c r="Y13" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="Z13" s="89">
+        <f t="shared" si="0"/>
+        <v>1.8414999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D14" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="79">
+        <v>3.2</v>
+      </c>
+      <c r="G14" s="76">
+        <v>24.6</v>
+      </c>
+      <c r="H14" s="76">
+        <v>22.8</v>
+      </c>
+      <c r="I14" s="76">
+        <v>41.4</v>
+      </c>
+      <c r="J14" s="76">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="K14" s="68"/>
+      <c r="L14" s="79">
+        <v>27.8</v>
+      </c>
+      <c r="M14" s="79">
+        <v>26</v>
+      </c>
+      <c r="N14" s="79">
+        <v>44.6</v>
+      </c>
+      <c r="O14" s="79">
+        <v>43</v>
+      </c>
+      <c r="S14" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="145">
+        <v>10</v>
+      </c>
+      <c r="U14" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="V14" s="89">
+        <f>H23</f>
+        <v>10.868249999999998</v>
+      </c>
+      <c r="W14" s="89">
+        <v>1</v>
+      </c>
+      <c r="X14" s="89">
+        <v>4300</v>
+      </c>
+      <c r="Y14" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="Z14" s="89">
+        <f t="shared" si="0"/>
+        <v>2.5274999999999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D15" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="147" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="148">
+        <v>5.6</v>
+      </c>
+      <c r="G15" s="148">
+        <v>1.1000000000000005</v>
+      </c>
+      <c r="H15" s="148">
+        <v>32.199999999999996</v>
+      </c>
+      <c r="I15" s="148">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="J15" s="148">
+        <v>35.5</v>
+      </c>
+      <c r="K15" s="68"/>
+      <c r="L15" s="148">
+        <v>6.7</v>
+      </c>
+      <c r="M15" s="148">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="N15" s="148">
+        <v>37.9</v>
+      </c>
+      <c r="O15" s="148">
+        <v>41.1</v>
+      </c>
+      <c r="S15" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" s="145">
+        <v>10</v>
+      </c>
+      <c r="U15" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="V15" s="89">
+        <f>H24</f>
+        <v>14.789</v>
+      </c>
+      <c r="W15" s="89">
+        <v>1</v>
+      </c>
+      <c r="X15" s="89">
+        <v>4600</v>
+      </c>
+      <c r="Y15" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="Z15" s="89">
+        <f t="shared" si="0"/>
+        <v>3.2149999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D16" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="76">
+        <v>7</v>
+      </c>
+      <c r="G16" s="76">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H16" s="76">
+        <v>18.43</v>
+      </c>
+      <c r="I16" s="76">
+        <v>18.41</v>
+      </c>
+      <c r="J16" s="76">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="K16" s="68"/>
+      <c r="L16" s="76">
+        <v>25.4</v>
+      </c>
+      <c r="M16" s="76">
+        <v>25.43</v>
+      </c>
+      <c r="N16" s="76">
+        <v>25.41</v>
+      </c>
+      <c r="O16" s="76">
+        <v>25.42</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D17" s="146" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="147" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="146">
+        <v>11.5</v>
+      </c>
+      <c r="G17" s="146">
+        <v>35.4</v>
+      </c>
+      <c r="H17" s="146">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="I17" s="146">
+        <v>29.299999999999997</v>
+      </c>
+      <c r="J17" s="146">
+        <v>28</v>
+      </c>
+      <c r="K17" s="68"/>
+      <c r="L17" s="146">
+        <v>46.9</v>
+      </c>
+      <c r="M17" s="146">
+        <v>44.2</v>
+      </c>
+      <c r="N17" s="146">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="O17" s="146">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="140"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D20" s="149" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="150" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="149" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="150" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="151" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="151"/>
+      <c r="N20" s="150" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="150" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="89">
+        <f>SUM(Paulo!E42:J42)/6</f>
+        <v>1.1251666666666664</v>
+      </c>
+      <c r="G21" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="89">
+        <f>SUM(Gabriel!E44:J44)/4</f>
+        <v>6.9977</v>
+      </c>
+      <c r="J21" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M21" s="119"/>
+      <c r="N21" s="89">
+        <v>6</v>
+      </c>
+      <c r="O21" s="89">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D22" s="152" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="152">
+        <f>SUM(Welbert!E42:J42)/6</f>
+        <v>1.3646666666666665</v>
+      </c>
+      <c r="F22" s="156"/>
+      <c r="G22" s="152" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="152">
+        <f>SUM(Mauricio!D41:J41)/4</f>
+        <v>7.2104999999999997</v>
+      </c>
+      <c r="I22" s="156"/>
+      <c r="J22" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="154"/>
+      <c r="L22" s="155">
+        <v>3.8</v>
+      </c>
+      <c r="M22" s="155"/>
+      <c r="N22" s="152">
+        <v>4</v>
+      </c>
+      <c r="O22" s="152">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="89">
+        <f>SUM(Gabriel!E42:J42)/6</f>
+        <v>1.7226666666666668</v>
+      </c>
+      <c r="G23" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="89">
+        <f>SUM(Paulo!E44:J44)/4</f>
+        <v>10.868249999999998</v>
+      </c>
+      <c r="J23" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="138" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="119">
+        <v>4.3</v>
+      </c>
+      <c r="M23" s="119"/>
+      <c r="N23" s="89">
+        <v>8</v>
+      </c>
+      <c r="O23" s="89">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="152" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="152">
+        <f>SUM(Mauricio!D40:J40)/6</f>
+        <v>3.637833333333333</v>
+      </c>
+      <c r="F24" s="156"/>
+      <c r="G24" s="152" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="152">
+        <f>SUM(Welbert!E44:J44)/4</f>
+        <v>14.789</v>
+      </c>
+      <c r="I24" s="156"/>
+      <c r="J24" s="153" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="155">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M24" s="155"/>
+      <c r="N24" s="152">
+        <v>2</v>
+      </c>
+      <c r="O24" s="152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="157" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="158" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="159" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="89">
+        <v>1.5816666666666663E-2</v>
+      </c>
+      <c r="F27" s="89">
+        <v>3.1349999999999996E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="146">
+        <v>4.5333333333333337E-3</v>
+      </c>
+      <c r="F28" s="159">
+        <v>1.8414999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="89">
+        <v>2.616666666666666E-3</v>
+      </c>
+      <c r="F29" s="89">
+        <v>2.5274999999999995E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D30" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="146">
+        <v>2.9666666666666661E-3</v>
+      </c>
+      <c r="F30" s="159">
+        <v>3.2149999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="S11:Z11"/>
+    <mergeCell ref="S6:Z6"/>
+    <mergeCell ref="S5:Z5"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1295,8 +2557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6647E8A-1654-4646-850C-386627128B0D}">
   <dimension ref="A2:XFD68"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,7 +2566,7 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
     <col min="6" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="1.7109375" style="1" customWidth="1"/>
@@ -1323,16 +2585,16 @@
       <c r="I2" s="61"/>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
-      <c r="L2" s="93" t="s">
+      <c r="L2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
       <c r="R2" s="61"/>
-      <c r="S2" s="86" t="s">
+      <c r="S2" s="112" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="66">
@@ -1344,34 +2606,34 @@
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89" t="s">
+      <c r="D3" s="109"/>
+      <c r="E3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90" t="s">
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
       <c r="K3" s="68"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="90" t="s">
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
       <c r="R3" s="61"/>
-      <c r="S3" s="86"/>
+      <c r="S3" s="112"/>
       <c r="T3" s="66">
         <v>1000</v>
       </c>
@@ -1381,7 +2643,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
-      <c r="B4" s="87"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="64" t="s">
         <v>4</v>
       </c>
@@ -1432,7 +2694,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="105" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="72" t="s">
@@ -1485,7 +2747,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
-      <c r="B6" s="91"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="64" t="s">
         <v>11</v>
       </c>
@@ -1536,7 +2798,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
-      <c r="B7" s="91"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="72" t="s">
         <v>12</v>
       </c>
@@ -1610,7 +2872,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="105" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="72" t="s">
@@ -1663,7 +2925,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
-      <c r="B10" s="91"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="76" t="s">
         <v>11</v>
       </c>
@@ -1714,7 +2976,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="61"/>
-      <c r="B11" s="91"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="74" t="s">
         <v>16</v>
       </c>
@@ -1765,7 +3027,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="61"/>
-      <c r="B12" s="91"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="76" t="s">
         <v>12</v>
       </c>
@@ -1863,25 +3125,25 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
       <c r="B15" s="61"/>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
       <c r="K15" s="68"/>
-      <c r="L15" s="92" t="s">
+      <c r="L15" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
       <c r="R15" s="61"/>
       <c r="S15" s="61"/>
       <c r="T15" s="61"/>
@@ -1890,29 +3152,29 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="61"/>
       <c r="B16" s="61"/>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89" t="s">
+      <c r="D16" s="109"/>
+      <c r="E16" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90" t="s">
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
       <c r="K16" s="68"/>
-      <c r="L16" s="93" t="s">
+      <c r="L16" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
       <c r="R16" s="61"/>
       <c r="S16" s="61"/>
       <c r="T16" s="61"/>
@@ -1962,7 +3224,7 @@
       </c>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="72" t="s">
@@ -2007,7 +3269,7 @@
       </c>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C19" s="91"/>
+      <c r="C19" s="105"/>
       <c r="D19" s="64" t="s">
         <v>11</v>
       </c>
@@ -2050,28 +3312,28 @@
       </c>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="91"/>
-      <c r="D20" s="92" t="s">
+      <c r="C20" s="105"/>
+      <c r="D20" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
       <c r="K20" s="68"/>
-      <c r="L20" s="92" t="s">
+      <c r="L20" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="92"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="106"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="91"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="72" t="s">
         <v>12</v>
       </c>
@@ -2123,15 +3385,15 @@
       <c r="I22" s="78"/>
       <c r="J22" s="78"/>
       <c r="K22" s="68"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="105" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="72" t="s">
@@ -2176,7 +3438,7 @@
       </c>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C24" s="91"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="76" t="s">
         <v>11</v>
       </c>
@@ -2219,7 +3481,7 @@
       </c>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="91"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="74" t="s">
         <v>16</v>
       </c>
@@ -2262,28 +3524,28 @@
       </c>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="91"/>
-      <c r="D26" s="92" t="s">
+      <c r="C26" s="105"/>
+      <c r="D26" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
       <c r="K26" s="68"/>
-      <c r="L26" s="92" t="s">
+      <c r="L26" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C27" s="91"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="72" t="s">
         <v>12</v>
       </c>
@@ -2335,12 +3597,12 @@
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>
       <c r="K28" s="68"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C29" s="61"/>
@@ -2360,10 +3622,10 @@
       <c r="Q29" s="67"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="92" t="s">
+      <c r="D30" s="106" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="84" t="s">
@@ -2440,37 +3702,37 @@
       <c r="I33" s="61"/>
       <c r="J33" s="61"/>
       <c r="K33" s="61"/>
-      <c r="L33" s="92" t="s">
+      <c r="L33" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="92"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="106"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
       <c r="B34" s="61"/>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
       <c r="K34" s="61"/>
-      <c r="L34" s="93" t="s">
+      <c r="L34" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="108"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -2491,31 +3753,31 @@
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
       <c r="B35" s="61"/>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="89" t="s">
+      <c r="D35" s="109"/>
+      <c r="E35" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="90" t="s">
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
       <c r="K35" s="61"/>
-      <c r="L35" s="89" t="s">
+      <c r="L35" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="90" t="s">
+      <c r="M35" s="110"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -2597,7 +3859,7 @@
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="61"/>
       <c r="B37" s="61"/>
-      <c r="C37" s="91" t="s">
+      <c r="C37" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="72" t="s">
@@ -2660,7 +3922,7 @@
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="61"/>
       <c r="B38" s="61"/>
-      <c r="C38" s="91"/>
+      <c r="C38" s="105"/>
       <c r="D38" s="64" t="s">
         <v>11</v>
       </c>
@@ -2721,7 +3983,7 @@
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
       <c r="B39" s="61"/>
-      <c r="C39" s="91"/>
+      <c r="C39" s="105"/>
       <c r="D39" s="72" t="s">
         <v>12</v>
       </c>
@@ -2791,12 +4053,12 @@
       <c r="I40" s="78"/>
       <c r="J40" s="78"/>
       <c r="K40" s="61"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="94"/>
-      <c r="O40" s="94"/>
-      <c r="P40" s="94"/>
-      <c r="Q40" s="94"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="107"/>
+      <c r="O40" s="107"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="107"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -2817,7 +4079,7 @@
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="61"/>
       <c r="B41" s="61"/>
-      <c r="C41" s="91" t="s">
+      <c r="C41" s="105" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="72" t="s">
@@ -2880,7 +4142,7 @@
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="61"/>
       <c r="B42" s="61"/>
-      <c r="C42" s="91"/>
+      <c r="C42" s="105"/>
       <c r="D42" s="76" t="s">
         <v>11</v>
       </c>
@@ -2941,7 +4203,7 @@
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="61"/>
       <c r="B43" s="61"/>
-      <c r="C43" s="91"/>
+      <c r="C43" s="105"/>
       <c r="D43" s="74" t="s">
         <v>16</v>
       </c>
@@ -3002,7 +4264,7 @@
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="61"/>
       <c r="B44" s="61"/>
-      <c r="C44" s="91"/>
+      <c r="C44" s="105"/>
       <c r="D44" s="76" t="s">
         <v>12</v>
       </c>
@@ -3072,12 +4334,12 @@
       <c r="I45" s="78"/>
       <c r="J45" s="78"/>
       <c r="K45" s="61"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="94"/>
-      <c r="Q45" s="94"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="107"/>
+      <c r="N45" s="107"/>
+      <c r="O45" s="107"/>
+      <c r="P45" s="107"/>
+      <c r="Q45" s="107"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
@@ -3142,10 +4404,6 @@
       <c r="I47" s="61"/>
       <c r="J47" s="61"/>
       <c r="K47" s="66"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
       <c r="P47" s="61"/>
       <c r="Q47" s="61"/>
       <c r="R47" s="2"/>
@@ -3177,10 +4435,6 @@
       <c r="I48" s="61"/>
       <c r="J48" s="61"/>
       <c r="K48" s="66"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
       <c r="P48" s="61"/>
       <c r="Q48" s="61"/>
       <c r="R48" s="2"/>
@@ -3630,18 +4884,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="L16:Q16"/>
     <mergeCell ref="C41:C44"/>
     <mergeCell ref="L45:Q45"/>
     <mergeCell ref="C35:D35"/>
@@ -3651,22 +4909,18 @@
     <mergeCell ref="O35:Q35"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="L40:Q40"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="L26:Q26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3676,8 +4930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BCB1C5-57DF-463A-8EB2-F6FCB59902C7}">
   <dimension ref="A2:U65"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3704,16 +4958,16 @@
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
-      <c r="L2" s="93" t="s">
+      <c r="L2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
       <c r="R2" s="32"/>
-      <c r="S2" s="86" t="s">
+      <c r="S2" s="112" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="33">
@@ -3725,34 +4979,34 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89" t="s">
+      <c r="D3" s="109"/>
+      <c r="E3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90" t="s">
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
       <c r="K3" s="37"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="90" t="s">
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
       <c r="R3" s="32"/>
-      <c r="S3" s="86"/>
+      <c r="S3" s="112"/>
       <c r="T3" s="33">
         <v>1000</v>
       </c>
@@ -3762,7 +5016,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
-      <c r="B4" s="87"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
@@ -3813,7 +5067,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="105" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="41" t="s">
@@ -3866,7 +5120,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
-      <c r="B6" s="91"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="36" t="s">
         <v>11</v>
       </c>
@@ -3917,7 +5171,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
-      <c r="B7" s="91"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="41" t="s">
         <v>12</v>
       </c>
@@ -3991,7 +5245,7 @@
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="114" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="41" t="s">
@@ -4044,7 +5298,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
-      <c r="B10" s="96"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="42" t="s">
         <v>11</v>
       </c>
@@ -4095,7 +5349,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
-      <c r="B11" s="96"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="53" t="s">
         <v>12</v>
       </c>
@@ -4146,7 +5400,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
-      <c r="B12" s="97"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -4193,25 +5447,25 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
       <c r="K14" s="37"/>
-      <c r="L14" s="92" t="s">
+      <c r="L14" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
       <c r="T14" s="32"/>
@@ -4220,29 +5474,29 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89" t="s">
+      <c r="D15" s="109"/>
+      <c r="E15" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90" t="s">
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
       <c r="K15" s="37"/>
-      <c r="L15" s="93" t="s">
+      <c r="L15" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
       <c r="R15" s="32"/>
       <c r="S15" s="32"/>
       <c r="T15" s="32"/>
@@ -4298,7 +5552,7 @@
       <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="41" t="s">
@@ -4343,7 +5597,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="91"/>
+      <c r="C18" s="105"/>
       <c r="D18" s="58" t="s">
         <v>11</v>
       </c>
@@ -4386,28 +5640,28 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C19" s="91"/>
-      <c r="D19" s="92" t="s">
+      <c r="C19" s="105"/>
+      <c r="D19" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
       <c r="K19" s="37"/>
-      <c r="L19" s="92" t="s">
+      <c r="L19" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="91"/>
+      <c r="C20" s="105"/>
       <c r="D20" s="41" t="s">
         <v>12</v>
       </c>
@@ -4459,15 +5713,15 @@
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
       <c r="K21" s="37"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="95" t="s">
+      <c r="C22" s="114" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -4512,7 +5766,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C23" s="96"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="54" t="s">
         <v>11</v>
       </c>
@@ -4555,28 +5809,28 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C24" s="96"/>
-      <c r="D24" s="92" t="s">
+      <c r="C24" s="115"/>
+      <c r="D24" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
       <c r="K24" s="37"/>
-      <c r="L24" s="92" t="s">
+      <c r="L24" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="92"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="96"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="41" t="s">
         <v>12</v>
       </c>
@@ -4619,7 +5873,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="97"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
@@ -4628,12 +5882,12 @@
       <c r="I26" s="43"/>
       <c r="J26" s="43"/>
       <c r="K26" s="37"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C27" s="32"/>
@@ -4653,10 +5907,10 @@
       <c r="Q27" s="34"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="106" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="48" t="s">
@@ -4731,66 +5985,66 @@
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
       <c r="K31" s="32"/>
-      <c r="L31" s="92" t="s">
+      <c r="L31" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="32"/>
-      <c r="C32" s="92" t="s">
+      <c r="C32" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
       <c r="K32" s="32"/>
-      <c r="L32" s="93" t="s">
+      <c r="L32" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="93"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89" t="s">
+      <c r="D33" s="109"/>
+      <c r="E33" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="90" t="s">
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
       <c r="K33" s="32"/>
-      <c r="L33" s="89" t="s">
+      <c r="L33" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="90" t="s">
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="90"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
@@ -4840,7 +6094,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="91" t="s">
+      <c r="C35" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="41" t="s">
@@ -4887,7 +6141,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
-      <c r="C36" s="91"/>
+      <c r="C36" s="105"/>
       <c r="D36" s="36" t="s">
         <v>11</v>
       </c>
@@ -4932,7 +6186,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
-      <c r="C37" s="91"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="41" t="s">
         <v>12</v>
       </c>
@@ -4986,17 +6240,17 @@
       <c r="I38" s="43"/>
       <c r="J38" s="43"/>
       <c r="K38" s="32"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="94"/>
-      <c r="O38" s="94"/>
-      <c r="P38" s="94"/>
-      <c r="Q38" s="94"/>
+      <c r="L38" s="107"/>
+      <c r="M38" s="107"/>
+      <c r="N38" s="107"/>
+      <c r="O38" s="107"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="91" t="s">
+      <c r="C39" s="105" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="41" t="s">
@@ -5043,7 +6297,7 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
-      <c r="C40" s="91"/>
+      <c r="C40" s="105"/>
       <c r="D40" s="42" t="s">
         <v>11</v>
       </c>
@@ -5088,7 +6342,7 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
-      <c r="C41" s="91"/>
+      <c r="C41" s="105"/>
       <c r="D41" s="41" t="s">
         <v>12</v>
       </c>
@@ -5142,12 +6396,12 @@
       <c r="I42" s="43"/>
       <c r="J42" s="43"/>
       <c r="K42" s="32"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="107"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="107"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="34"/>
@@ -5300,34 +6554,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="C22:C26"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="L38:Q38"/>
     <mergeCell ref="C39:C41"/>
@@ -5337,6 +6563,34 @@
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="L33:N33"/>
     <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5346,43 +6600,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1EEBE0-1B3A-4A3B-AD12-1B6EBB14323D}">
   <dimension ref="A2:U68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="98" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="98" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="98" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="98" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="98" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="98" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" style="98" customWidth="1"/>
-    <col min="9" max="10" width="8.7109375" style="98" customWidth="1"/>
-    <col min="11" max="11" width="3" style="99" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="98" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="98" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="98" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="98" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="98" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="98" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="87" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="87" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="87" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="87" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" style="87" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="87" customWidth="1"/>
+    <col min="9" max="10" width="8.7109375" style="87" customWidth="1"/>
+    <col min="11" max="11" width="3" style="88" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="87" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="87" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="87" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="87" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="87" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="87" customWidth="1"/>
     <col min="18" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L2" s="100" t="s">
+      <c r="L2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="S2" s="101" t="s">
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="S2" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="98">
+      <c r="T2" s="87">
         <v>1000000</v>
       </c>
       <c r="U2" t="s">
@@ -5390,33 +6644,33 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="102"/>
-      <c r="C3" s="102" t="s">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103" t="s">
+      <c r="D3" s="119"/>
+      <c r="E3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104" t="s">
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="L3" s="103" t="s">
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="L3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="104" t="s">
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="98">
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="87">
         <v>1000</v>
       </c>
       <c r="U3" t="s">
@@ -5424,440 +6678,440 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="102"/>
-      <c r="C4" s="105" t="s">
+      <c r="B4" s="119"/>
+      <c r="C4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="107" t="s">
+      <c r="E4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="106" t="s">
+      <c r="J4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="107" t="s">
+      <c r="L4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="108" t="s">
+      <c r="M4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="107" t="s">
+      <c r="O4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="108" t="s">
+      <c r="P4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="90" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="111">
+      <c r="D5" s="94">
         <v>2462716</v>
       </c>
-      <c r="E5" s="110">
+      <c r="E5" s="93">
         <f>L5-D5</f>
         <v>63145</v>
       </c>
-      <c r="F5" s="110">
+      <c r="F5" s="93">
         <f>M5-D5</f>
         <v>63145</v>
       </c>
-      <c r="G5" s="110">
+      <c r="G5" s="93">
         <f>N5-D5</f>
         <v>189439</v>
       </c>
-      <c r="H5" s="110">
+      <c r="H5" s="93">
         <f>O5-D5</f>
         <v>189439</v>
       </c>
-      <c r="I5" s="112">
+      <c r="I5" s="95">
         <f>P5-D5</f>
         <v>189439</v>
       </c>
-      <c r="J5" s="110">
+      <c r="J5" s="93">
         <f>Q5-D5</f>
         <v>378877</v>
       </c>
-      <c r="L5" s="113">
+      <c r="L5" s="96">
         <v>2525861</v>
       </c>
-      <c r="M5" s="113">
+      <c r="M5" s="96">
         <v>2525861</v>
       </c>
-      <c r="N5" s="113">
+      <c r="N5" s="96">
         <v>2652155</v>
       </c>
-      <c r="O5" s="113">
+      <c r="O5" s="96">
         <v>2652155</v>
       </c>
-      <c r="P5" s="113">
+      <c r="P5" s="96">
         <v>2652155</v>
       </c>
-      <c r="Q5" s="113">
+      <c r="Q5" s="96">
         <v>2841593</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="109"/>
-      <c r="C6" s="105" t="s">
+      <c r="B6" s="117"/>
+      <c r="C6" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="105">
+      <c r="D6" s="89">
         <v>2715301</v>
       </c>
-      <c r="E6" s="112">
+      <c r="E6" s="95">
         <f>L6-D6</f>
         <v>126294</v>
       </c>
-      <c r="F6" s="112">
+      <c r="F6" s="95">
         <f>M6-D6</f>
         <v>63144</v>
       </c>
-      <c r="G6" s="112">
+      <c r="G6" s="95">
         <f>N6-D6</f>
         <v>315732</v>
       </c>
-      <c r="H6" s="112">
+      <c r="H6" s="95">
         <f>O6-D6</f>
         <v>378879</v>
       </c>
-      <c r="I6" s="112">
+      <c r="I6" s="95">
         <f>P6-D6</f>
         <v>378879</v>
       </c>
-      <c r="J6" s="114">
+      <c r="J6" s="97">
         <f>Q6-D6</f>
         <v>884049</v>
       </c>
-      <c r="L6" s="105">
+      <c r="L6" s="89">
         <v>2841595</v>
       </c>
-      <c r="M6" s="105">
+      <c r="M6" s="89">
         <v>2778445</v>
       </c>
-      <c r="N6" s="105">
+      <c r="N6" s="89">
         <v>3031033</v>
       </c>
-      <c r="O6" s="105">
+      <c r="O6" s="89">
         <v>3094180</v>
       </c>
-      <c r="P6" s="105">
+      <c r="P6" s="89">
         <v>3094180</v>
       </c>
-      <c r="Q6" s="105">
+      <c r="Q6" s="89">
         <v>3599350</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="109"/>
-      <c r="C7" s="110" t="s">
+      <c r="B7" s="117"/>
+      <c r="C7" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D7" s="94">
         <v>3220472</v>
       </c>
-      <c r="E7" s="110">
+      <c r="E7" s="93">
         <f>L7-D7</f>
         <v>9217129</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="110">
+      <c r="G7" s="93">
         <f>N7-D7</f>
         <v>7135697</v>
       </c>
-      <c r="H7" s="110">
+      <c r="H7" s="93">
         <f>O7-D7</f>
         <v>9469715</v>
       </c>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="110">
+      <c r="J7" s="93">
         <f>Q7-D7</f>
         <v>7388284</v>
       </c>
-      <c r="L7" s="110">
+      <c r="L7" s="93">
         <v>12437601</v>
       </c>
-      <c r="M7" s="110" t="s">
+      <c r="M7" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="110">
+      <c r="N7" s="93">
         <v>10356169</v>
       </c>
-      <c r="O7" s="110">
+      <c r="O7" s="93">
         <v>12690187</v>
       </c>
-      <c r="P7" s="110" t="s">
+      <c r="P7" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="110">
+      <c r="Q7" s="93">
         <v>10608756</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
     </row>
     <row r="9" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D9" s="93">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E9" s="110">
+      <c r="E9" s="93">
         <f>L9-D9</f>
         <v>13.6</v>
       </c>
-      <c r="F9" s="110">
+      <c r="F9" s="93">
         <f>M9-D9</f>
         <v>11.299999999999999</v>
       </c>
-      <c r="G9" s="110">
+      <c r="G9" s="93">
         <f>N9-D9</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="93">
         <f>O9-D9</f>
         <v>13.4</v>
       </c>
-      <c r="I9" s="110">
+      <c r="I9" s="93">
         <f>P9-D9</f>
         <v>11.6</v>
       </c>
-      <c r="J9" s="110">
+      <c r="J9" s="93">
         <f>Q9-D9</f>
         <v>19.899999999999999</v>
       </c>
-      <c r="L9" s="110">
+      <c r="L9" s="93">
         <v>18.5</v>
       </c>
-      <c r="M9" s="110">
+      <c r="M9" s="93">
         <v>16.2</v>
       </c>
-      <c r="N9" s="110">
+      <c r="N9" s="93">
         <v>21.5</v>
       </c>
-      <c r="O9" s="110">
+      <c r="O9" s="93">
         <v>18.3</v>
       </c>
-      <c r="P9" s="110">
+      <c r="P9" s="93">
         <v>16.5</v>
       </c>
-      <c r="Q9" s="110">
+      <c r="Q9" s="93">
         <v>24.8</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="109"/>
-      <c r="C10" s="112" t="s">
+      <c r="B10" s="117"/>
+      <c r="C10" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="112">
+      <c r="D10" s="95">
         <v>5.4</v>
       </c>
-      <c r="E10" s="112">
+      <c r="E10" s="95">
         <f>L10-D10</f>
         <v>1.2999999999999998</v>
       </c>
-      <c r="F10" s="112">
+      <c r="F10" s="95">
         <f>M10-D10</f>
         <v>1.2999999999999998</v>
       </c>
-      <c r="G10" s="112">
+      <c r="G10" s="95">
         <f>N10-D10</f>
         <v>0.29999999999999982</v>
       </c>
-      <c r="H10" s="112">
+      <c r="H10" s="95">
         <f>O10-D10</f>
         <v>1.6999999999999993</v>
       </c>
-      <c r="I10" s="112">
+      <c r="I10" s="95">
         <f>P10-D10</f>
         <v>2.7999999999999989</v>
       </c>
-      <c r="J10" s="112">
+      <c r="J10" s="95">
         <f>Q10-D10</f>
         <v>2.9000000000000004</v>
       </c>
-      <c r="L10" s="112">
+      <c r="L10" s="95">
         <v>6.7</v>
       </c>
-      <c r="M10" s="112">
+      <c r="M10" s="95">
         <v>6.7</v>
       </c>
-      <c r="N10" s="112">
+      <c r="N10" s="95">
         <v>5.7</v>
       </c>
-      <c r="O10" s="112">
+      <c r="O10" s="95">
         <v>7.1</v>
       </c>
-      <c r="P10" s="112">
+      <c r="P10" s="95">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Q10" s="112">
+      <c r="Q10" s="95">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="109"/>
-      <c r="C11" s="113" t="s">
+      <c r="B11" s="117"/>
+      <c r="C11" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="113">
+      <c r="D11" s="96">
         <v>5.9</v>
       </c>
-      <c r="E11" s="110">
+      <c r="E11" s="93">
         <f>L11-D11</f>
         <v>1.1999999999999993</v>
       </c>
-      <c r="F11" s="110">
+      <c r="F11" s="93">
         <f>M11-D11</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="93">
         <f>N11-D11</f>
         <v>2.5</v>
       </c>
-      <c r="H11" s="110">
+      <c r="H11" s="93">
         <f>O11-D11</f>
         <v>3.5</v>
       </c>
-      <c r="I11" s="110">
+      <c r="I11" s="93">
         <f>P11-D11</f>
         <v>3.5</v>
       </c>
-      <c r="J11" s="110">
+      <c r="J11" s="93">
         <f>Q11-D11</f>
         <v>4</v>
       </c>
-      <c r="L11" s="113">
+      <c r="L11" s="96">
         <v>7.1</v>
       </c>
-      <c r="M11" s="113">
+      <c r="M11" s="96">
         <v>7.7</v>
       </c>
-      <c r="N11" s="113">
+      <c r="N11" s="96">
         <v>8.4</v>
       </c>
-      <c r="O11" s="113">
+      <c r="O11" s="96">
         <v>9.4</v>
       </c>
-      <c r="P11" s="113">
+      <c r="P11" s="96">
         <v>9.4</v>
       </c>
-      <c r="Q11" s="113">
+      <c r="Q11" s="96">
         <v>9.9</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="109"/>
-      <c r="C12" s="112" t="s">
+      <c r="B12" s="117"/>
+      <c r="C12" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="112">
+      <c r="D12" s="95">
         <v>5.6</v>
       </c>
-      <c r="E12" s="112">
+      <c r="E12" s="95">
         <f>L12-D12</f>
         <v>1.1000000000000005</v>
       </c>
-      <c r="F12" s="112" t="s">
+      <c r="F12" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="112">
+      <c r="G12" s="95">
         <f>N12-D12</f>
         <v>32.199999999999996</v>
       </c>
-      <c r="H12" s="112">
+      <c r="H12" s="95">
         <f>O12-D12</f>
         <v>32.299999999999997</v>
       </c>
-      <c r="I12" s="112" t="s">
+      <c r="I12" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="112">
+      <c r="J12" s="95">
         <f>Q12-D12</f>
         <v>35.5</v>
       </c>
-      <c r="L12" s="112">
+      <c r="L12" s="95">
         <v>6.7</v>
       </c>
-      <c r="M12" s="112" t="s">
+      <c r="M12" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="112">
+      <c r="N12" s="95">
         <v>37.799999999999997</v>
       </c>
-      <c r="O12" s="112">
+      <c r="O12" s="95">
         <v>37.9</v>
       </c>
-      <c r="P12" s="112" t="s">
+      <c r="P12" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="112">
+      <c r="Q12" s="95">
         <v>41.1</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14"/>
@@ -5878,536 +7132,536 @@
       <c r="Q14"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="L15" s="117" t="s">
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="L15" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="117"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103" t="s">
+      <c r="D16" s="119"/>
+      <c r="E16" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104" t="s">
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="L16" s="100" t="s">
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="L16" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C17" s="118"/>
-      <c r="D17" s="105" t="s">
+      <c r="C17" s="100"/>
+      <c r="D17" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="107" t="s">
+      <c r="E17" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="108" t="s">
+      <c r="F17" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="106" t="s">
+      <c r="G17" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="107" t="s">
+      <c r="H17" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="108" t="s">
+      <c r="I17" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="106" t="s">
+      <c r="J17" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="107" t="s">
+      <c r="L17" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="M17" s="108" t="s">
+      <c r="M17" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="106" t="s">
+      <c r="N17" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="107" t="s">
+      <c r="O17" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="P17" s="108" t="s">
+      <c r="P17" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q17" s="106" t="s">
+      <c r="Q17" s="90" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="3:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="110" t="s">
+      <c r="D18" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="110">
+      <c r="E18" s="93">
         <f>E31/L18</f>
         <v>15.836566632354105</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F18" s="93">
         <f>E31/M18</f>
         <v>15.836566632354105</v>
       </c>
-      <c r="G18" s="110">
+      <c r="G18" s="93">
         <f>E31/N18</f>
         <v>5.2787440812081989</v>
       </c>
-      <c r="H18" s="110">
+      <c r="H18" s="93">
         <f>E31/O18</f>
         <v>5.2787440812081989</v>
       </c>
-      <c r="I18" s="110">
+      <c r="I18" s="93">
         <f>E31/P18</f>
         <v>5.2787440812081989</v>
       </c>
-      <c r="J18" s="110">
+      <c r="J18" s="93">
         <f>E31/Q18</f>
         <v>2.6393790069072547</v>
       </c>
-      <c r="L18" s="110">
+      <c r="L18" s="93">
         <f>E5/T2</f>
         <v>6.3145000000000007E-2</v>
       </c>
-      <c r="M18" s="110">
+      <c r="M18" s="93">
         <f>F5/T2</f>
         <v>6.3145000000000007E-2</v>
       </c>
-      <c r="N18" s="110">
+      <c r="N18" s="93">
         <f>G5/T2</f>
         <v>0.189439</v>
       </c>
-      <c r="O18" s="110">
+      <c r="O18" s="93">
         <f>H5/T2</f>
         <v>0.189439</v>
       </c>
-      <c r="P18" s="110">
+      <c r="P18" s="93">
         <f>I5/T2</f>
         <v>0.189439</v>
       </c>
-      <c r="Q18" s="110">
+      <c r="Q18" s="93">
         <f>J5/T2</f>
         <v>0.37887700000000002</v>
       </c>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C19" s="109"/>
-      <c r="D19" s="105" t="s">
+      <c r="C19" s="117"/>
+      <c r="D19" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="114">
+      <c r="E19" s="97">
         <f>E31/L19</f>
         <v>7.9180325272776226</v>
       </c>
-      <c r="F19" s="114">
+      <c r="F19" s="97">
         <f>E31/M19</f>
         <v>15.83681743316863</v>
       </c>
-      <c r="G19" s="114">
+      <c r="G19" s="97">
         <f>E31/N19</f>
         <v>3.1672431049117606</v>
       </c>
-      <c r="H19" s="114">
+      <c r="H19" s="97">
         <f>E31/O19</f>
         <v>2.6393650743377171</v>
       </c>
-      <c r="I19" s="114">
+      <c r="I19" s="97">
         <f>E31/P19</f>
         <v>2.6393650743377171</v>
       </c>
-      <c r="J19" s="114">
+      <c r="J19" s="97">
         <f>E31/Q19</f>
         <v>1.1311590194661156</v>
       </c>
-      <c r="L19" s="112">
+      <c r="L19" s="95">
         <f>E6/T2</f>
         <v>0.12629399999999999</v>
       </c>
-      <c r="M19" s="112">
+      <c r="M19" s="95">
         <f>F6/T2</f>
         <v>6.3144000000000006E-2</v>
       </c>
-      <c r="N19" s="112">
+      <c r="N19" s="95">
         <f>G6/T2</f>
         <v>0.31573200000000001</v>
       </c>
-      <c r="O19" s="112">
+      <c r="O19" s="95">
         <f>H6/T2</f>
         <v>0.37887900000000002</v>
       </c>
-      <c r="P19" s="112">
+      <c r="P19" s="95">
         <f>I6/T2</f>
         <v>0.37887900000000002</v>
       </c>
-      <c r="Q19" s="112">
+      <c r="Q19" s="95">
         <f>J6/T2</f>
         <v>0.88404899999999997</v>
       </c>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="109"/>
-      <c r="D20" s="117" t="s">
+      <c r="C20" s="117"/>
+      <c r="D20" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="L20" s="117" t="s">
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="L20" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="117"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="109"/>
-      <c r="D21" s="110" t="s">
+      <c r="C21" s="117"/>
+      <c r="D21" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="110">
+      <c r="E21" s="93">
         <f>E31/L21</f>
         <v>0.10849365350099797</v>
       </c>
-      <c r="F21" s="110" t="s">
+      <c r="F21" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="110">
+      <c r="G21" s="93">
         <f>E31/N21</f>
         <v>0.14014047961958026</v>
       </c>
-      <c r="H21" s="110">
+      <c r="H21" s="93">
         <f>E31/O21</f>
         <v>0.10559979893798281</v>
       </c>
-      <c r="I21" s="110" t="s">
+      <c r="I21" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="110">
+      <c r="J21" s="93">
         <f>E31/Q21</f>
         <v>0.13534942619964258</v>
       </c>
-      <c r="L21" s="110">
+      <c r="L21" s="93">
         <f>E7/T2</f>
         <v>9.2171289999999999</v>
       </c>
-      <c r="M21" s="110" t="s">
+      <c r="M21" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="N21" s="110">
+      <c r="N21" s="93">
         <f>G7/T2</f>
         <v>7.1356970000000004</v>
       </c>
-      <c r="O21" s="110">
+      <c r="O21" s="93">
         <f>H7/T2</f>
         <v>9.4697150000000008</v>
       </c>
-      <c r="P21" s="110" t="s">
+      <c r="P21" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="Q21" s="110">
+      <c r="Q21" s="93">
         <f>J7/T2</f>
         <v>7.3882839999999996</v>
       </c>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
     </row>
     <row r="23" spans="3:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="110" t="s">
+      <c r="D23" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="110">
+      <c r="E23" s="93">
         <f>E32/L23</f>
         <v>735.2941176470589</v>
       </c>
-      <c r="F23" s="110">
+      <c r="F23" s="93">
         <f>E32/M23</f>
         <v>884.95575221238948</v>
       </c>
-      <c r="G23" s="110">
+      <c r="G23" s="93">
         <f>E32/N23</f>
         <v>602.40963855421683</v>
       </c>
-      <c r="H23" s="110">
+      <c r="H23" s="93">
         <f>E32/O23</f>
         <v>546.44808743169403</v>
       </c>
-      <c r="I23" s="110">
+      <c r="I23" s="93">
         <f>E32/P23</f>
         <v>862.06896551724139</v>
       </c>
-      <c r="J23" s="110">
+      <c r="J23" s="93">
         <f>E32/Q23</f>
         <v>502.51256281407041</v>
       </c>
-      <c r="L23" s="110">
+      <c r="L23" s="93">
         <f>E9/T3</f>
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="M23" s="110">
+      <c r="M23" s="93">
         <f>F9/T3</f>
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="N23" s="110">
+      <c r="N23" s="93">
         <f>G9/T3</f>
         <v>1.66E-2</v>
       </c>
-      <c r="O23" s="110">
+      <c r="O23" s="93">
         <f>O9/T3</f>
         <v>1.83E-2</v>
       </c>
-      <c r="P23" s="110">
+      <c r="P23" s="93">
         <f>I9/T3</f>
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="Q23" s="110">
+      <c r="Q23" s="93">
         <f>J9/T3</f>
         <v>1.9899999999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C24" s="109"/>
-      <c r="D24" s="112" t="s">
+      <c r="C24" s="117"/>
+      <c r="D24" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="114">
+      <c r="E24" s="97">
         <f>E32/L24</f>
         <v>7692.3076923076942</v>
       </c>
-      <c r="F24" s="114">
+      <c r="F24" s="97">
         <f>E32/M24</f>
         <v>7692.3076923076942</v>
       </c>
-      <c r="G24" s="114">
+      <c r="G24" s="97">
         <f>E32/N24</f>
         <v>33333.333333333358</v>
       </c>
-      <c r="H24" s="114">
+      <c r="H24" s="97">
         <f>E32/O24</f>
         <v>1408.4507042253522</v>
       </c>
-      <c r="I24" s="114">
+      <c r="I24" s="97">
         <f>E32/P24</f>
         <v>3571.4285714285725</v>
       </c>
-      <c r="J24" s="114">
+      <c r="J24" s="97">
         <f>E32/Q24</f>
         <v>3448.2758620689651</v>
       </c>
-      <c r="L24" s="112">
+      <c r="L24" s="95">
         <f>E10/T3</f>
         <v>1.2999999999999997E-3</v>
       </c>
-      <c r="M24" s="112">
+      <c r="M24" s="95">
         <f>F10/T3</f>
         <v>1.2999999999999997E-3</v>
       </c>
-      <c r="N24" s="112">
+      <c r="N24" s="95">
         <f>G10/T3</f>
         <v>2.9999999999999981E-4</v>
       </c>
-      <c r="O24" s="112">
+      <c r="O24" s="95">
         <f>O10/T3</f>
         <v>7.0999999999999995E-3</v>
       </c>
-      <c r="P24" s="112">
+      <c r="P24" s="95">
         <f>I10/T3</f>
         <v>2.7999999999999991E-3</v>
       </c>
-      <c r="Q24" s="112">
+      <c r="Q24" s="95">
         <f>J10/T3</f>
         <v>2.9000000000000002E-3</v>
       </c>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="109"/>
-      <c r="D25" s="120" t="s">
+      <c r="C25" s="117"/>
+      <c r="D25" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="110">
+      <c r="E25" s="93">
         <f>E32/L25</f>
         <v>8333.3333333333394</v>
       </c>
-      <c r="F25" s="110">
+      <c r="F25" s="93">
         <f>E32/M25</f>
         <v>5555.5555555555566</v>
       </c>
-      <c r="G25" s="110">
+      <c r="G25" s="93">
         <f>E32/N25</f>
         <v>4000</v>
       </c>
-      <c r="H25" s="110">
+      <c r="H25" s="93">
         <f>E32/O25</f>
         <v>1063.8297872340424</v>
       </c>
-      <c r="I25" s="110">
+      <c r="I25" s="93">
         <f>E32/P25</f>
         <v>2857.1428571428569</v>
       </c>
-      <c r="J25" s="110">
+      <c r="J25" s="93">
         <f>E32/Q25</f>
         <v>2500</v>
       </c>
-      <c r="L25" s="113">
+      <c r="L25" s="96">
         <f>E11/T3</f>
         <v>1.1999999999999992E-3</v>
       </c>
-      <c r="M25" s="110">
+      <c r="M25" s="93">
         <f>F11/T3</f>
         <v>1.7999999999999997E-3</v>
       </c>
-      <c r="N25" s="113">
+      <c r="N25" s="96">
         <f>G11/T3</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="O25" s="113">
+      <c r="O25" s="96">
         <f>O11/T3</f>
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="P25" s="113">
+      <c r="P25" s="96">
         <f>I11/T3</f>
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="Q25" s="113">
+      <c r="Q25" s="96">
         <f>J11/T3</f>
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="109"/>
-      <c r="D26" s="117" t="s">
+      <c r="C26" s="117"/>
+      <c r="D26" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="L26" s="117" t="s">
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="L26" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="117"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C27" s="109"/>
-      <c r="D27" s="110" t="s">
+      <c r="C27" s="117"/>
+      <c r="D27" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="110">
+      <c r="E27" s="93">
         <f>E32/L27</f>
         <v>9090.9090909090864</v>
       </c>
-      <c r="F27" s="110" t="s">
+      <c r="F27" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="110">
+      <c r="G27" s="93">
         <f>E32/N27</f>
         <v>310.55900621118019</v>
       </c>
-      <c r="H27" s="110">
+      <c r="H27" s="93">
         <f>E32/O27</f>
         <v>309.59752321981426</v>
       </c>
-      <c r="I27" s="110" t="s">
+      <c r="I27" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="110">
+      <c r="J27" s="93">
         <f>E32/Q27</f>
         <v>281.69014084507046</v>
       </c>
-      <c r="L27" s="110">
+      <c r="L27" s="93">
         <f>E12/T3</f>
         <v>1.1000000000000005E-3</v>
       </c>
-      <c r="M27" s="110" t="s">
+      <c r="M27" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="110">
+      <c r="N27" s="93">
         <f>G12/T3</f>
         <v>3.2199999999999993E-2</v>
       </c>
-      <c r="O27" s="110">
+      <c r="O27" s="93">
         <f>H12/T3</f>
         <v>3.2299999999999995E-2</v>
       </c>
-      <c r="P27" s="110" t="s">
+      <c r="P27" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="Q27" s="110">
+      <c r="Q27" s="93">
         <f>J12/T3</f>
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="118"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="L29"/>
@@ -6418,13 +7672,13 @@
       <c r="Q29"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="117" t="s">
+      <c r="C30" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="117" t="s">
+      <c r="D30" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="121" t="s">
+      <c r="E30" s="102" t="s">
         <v>20</v>
       </c>
       <c r="G30"/>
@@ -6437,13 +7691,13 @@
       <c r="Q30"/>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="122" t="s">
+      <c r="C31" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="105">
+      <c r="D31" s="89">
         <v>16</v>
       </c>
-      <c r="E31" s="105">
+      <c r="E31" s="89">
         <v>1</v>
       </c>
       <c r="G31"/>
@@ -6456,13 +7710,13 @@
       <c r="Q31"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="105">
+      <c r="D32" s="89">
         <v>4300</v>
       </c>
-      <c r="E32" s="105">
+      <c r="E32" s="89">
         <v>10</v>
       </c>
       <c r="L32"/>
@@ -6473,513 +7727,513 @@
       <c r="Q32"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L33" s="117" t="s">
+      <c r="L33" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="M33" s="117"/>
-      <c r="N33" s="117"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="117"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="122"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C34" s="117" t="s">
+      <c r="C34" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="L34" s="100" t="s">
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="L34" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
-      <c r="O34" s="100"/>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="100"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="123"/>
+      <c r="Q34" s="123"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C35" s="102" t="s">
+      <c r="C35" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="102"/>
-      <c r="E35" s="103" t="s">
+      <c r="D35" s="119"/>
+      <c r="E35" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="104" t="s">
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="L35" s="103" t="s">
+      <c r="I35" s="121"/>
+      <c r="J35" s="121"/>
+      <c r="L35" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="104" t="s">
+      <c r="M35" s="120"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
+      <c r="P35" s="121"/>
+      <c r="Q35" s="121"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C36" s="118"/>
-      <c r="D36" s="105" t="s">
+      <c r="C36" s="100"/>
+      <c r="D36" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="107" t="s">
+      <c r="E36" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="108" t="s">
+      <c r="F36" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="106" t="s">
+      <c r="G36" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="107" t="s">
+      <c r="H36" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="108" t="s">
+      <c r="I36" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="J36" s="106" t="s">
+      <c r="J36" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="L36" s="107" t="s">
+      <c r="L36" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="108" t="s">
+      <c r="M36" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="N36" s="106" t="s">
+      <c r="N36" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O36" s="107" t="s">
+      <c r="O36" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="P36" s="108" t="s">
+      <c r="P36" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q36" s="106" t="s">
+      <c r="Q36" s="90" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="109" t="s">
+      <c r="C37" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="110" t="s">
+      <c r="D37" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="110">
+      <c r="E37" s="93">
         <f>(L37/E31)*D31</f>
         <v>1.0103200000000001</v>
       </c>
-      <c r="F37" s="110">
+      <c r="F37" s="93">
         <f>(M37/E31)*D31</f>
         <v>1.0103200000000001</v>
       </c>
-      <c r="G37" s="110">
+      <c r="G37" s="93">
         <f>(N37/E31)*D31</f>
         <v>3.0310239999999999</v>
       </c>
-      <c r="H37" s="110">
+      <c r="H37" s="93">
         <f>(O37/E31)*D31</f>
         <v>3.0310239999999999</v>
       </c>
-      <c r="I37" s="110">
+      <c r="I37" s="93">
         <f>(P37/E31)*D31</f>
         <v>3.0310239999999999</v>
       </c>
-      <c r="J37" s="110">
+      <c r="J37" s="93">
         <f>(Q37/E31)*D31</f>
         <v>6.0620320000000003</v>
       </c>
-      <c r="L37" s="110">
+      <c r="L37" s="93">
         <f t="shared" ref="L37:Q38" si="0">L18</f>
         <v>6.3145000000000007E-2</v>
       </c>
-      <c r="M37" s="110">
+      <c r="M37" s="93">
         <f t="shared" si="0"/>
         <v>6.3145000000000007E-2</v>
       </c>
-      <c r="N37" s="110">
+      <c r="N37" s="93">
         <f t="shared" si="0"/>
         <v>0.189439</v>
       </c>
-      <c r="O37" s="110">
+      <c r="O37" s="93">
         <f t="shared" si="0"/>
         <v>0.189439</v>
       </c>
-      <c r="P37" s="110">
+      <c r="P37" s="93">
         <f t="shared" si="0"/>
         <v>0.189439</v>
       </c>
-      <c r="Q37" s="110">
+      <c r="Q37" s="93">
         <f t="shared" si="0"/>
         <v>0.37887700000000002</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C38" s="109"/>
-      <c r="D38" s="105" t="s">
+      <c r="C38" s="117"/>
+      <c r="D38" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="114">
+      <c r="E38" s="97">
         <f>(L38/E31)*D31</f>
         <v>2.0207039999999998</v>
       </c>
-      <c r="F38" s="114">
+      <c r="F38" s="97">
         <f>(M38/E31)*D31</f>
         <v>1.0103040000000001</v>
       </c>
-      <c r="G38" s="114">
+      <c r="G38" s="97">
         <f>(N38/E31)*D31</f>
         <v>5.0517120000000002</v>
       </c>
-      <c r="H38" s="114">
+      <c r="H38" s="97">
         <f>(O38/E31)*D31</f>
         <v>6.0620640000000003</v>
       </c>
-      <c r="I38" s="114">
+      <c r="I38" s="97">
         <f>(P38/E31)*D31</f>
         <v>6.0620640000000003</v>
       </c>
-      <c r="J38" s="114">
+      <c r="J38" s="97">
         <f>(Q38/E31)*D31</f>
         <v>14.144784</v>
       </c>
-      <c r="L38" s="112">
+      <c r="L38" s="95">
         <f t="shared" si="0"/>
         <v>0.12629399999999999</v>
       </c>
-      <c r="M38" s="112">
+      <c r="M38" s="95">
         <f t="shared" si="0"/>
         <v>6.3144000000000006E-2</v>
       </c>
-      <c r="N38" s="112">
+      <c r="N38" s="95">
         <f t="shared" si="0"/>
         <v>0.31573200000000001</v>
       </c>
-      <c r="O38" s="112">
+      <c r="O38" s="95">
         <f t="shared" si="0"/>
         <v>0.37887900000000002</v>
       </c>
-      <c r="P38" s="112">
+      <c r="P38" s="95">
         <f t="shared" si="0"/>
         <v>0.37887900000000002</v>
       </c>
-      <c r="Q38" s="112">
+      <c r="Q38" s="95">
         <f t="shared" si="0"/>
         <v>0.88404899999999997</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C39" s="109"/>
-      <c r="D39" s="110" t="s">
+      <c r="C39" s="117"/>
+      <c r="D39" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="110">
+      <c r="E39" s="93">
         <f>(L39/E31)*D31</f>
         <v>147.474064</v>
       </c>
-      <c r="F39" s="110" t="s">
+      <c r="F39" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="110">
+      <c r="G39" s="93">
         <f>(N39/E31)*D31</f>
         <v>114.17115200000001</v>
       </c>
-      <c r="H39" s="110">
+      <c r="H39" s="93">
         <f>(O39/E31)*D31</f>
         <v>151.51544000000001</v>
       </c>
-      <c r="I39" s="110" t="s">
+      <c r="I39" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="110">
+      <c r="J39" s="93">
         <f>(Q39/E31)*D31</f>
         <v>118.21254399999999</v>
       </c>
-      <c r="K39" s="98"/>
-      <c r="L39" s="110">
+      <c r="K39" s="87"/>
+      <c r="L39" s="93">
         <f t="shared" ref="L39:Q39" si="1">L21</f>
         <v>9.2171289999999999</v>
       </c>
-      <c r="M39" s="110" t="str">
+      <c r="M39" s="93" t="str">
         <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
-      <c r="N39" s="110">
+      <c r="N39" s="93">
         <f t="shared" si="1"/>
         <v>7.1356970000000004</v>
       </c>
-      <c r="O39" s="110">
+      <c r="O39" s="93">
         <f t="shared" si="1"/>
         <v>9.4697150000000008</v>
       </c>
-      <c r="P39" s="110" t="str">
+      <c r="P39" s="93" t="str">
         <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
-      <c r="Q39" s="110">
+      <c r="Q39" s="93">
         <f t="shared" si="1"/>
         <v>7.3882839999999996</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="L40" s="119"/>
-      <c r="M40" s="119"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="119"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="119"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="118"/>
+      <c r="N40" s="118"/>
+      <c r="O40" s="118"/>
+      <c r="P40" s="118"/>
+      <c r="Q40" s="118"/>
     </row>
     <row r="41" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="109" t="s">
+      <c r="C41" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="110" t="s">
+      <c r="D41" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="110">
+      <c r="E41" s="93">
         <f>(L41/E32)*D32</f>
         <v>5.8479999999999999</v>
       </c>
-      <c r="F41" s="110">
+      <c r="F41" s="93">
         <f>(M41/E32)*D32</f>
         <v>4.859</v>
       </c>
-      <c r="G41" s="110">
+      <c r="G41" s="93">
         <f>(N41/E32)*D32</f>
         <v>7.1379999999999999</v>
       </c>
-      <c r="H41" s="110">
+      <c r="H41" s="93">
         <f>(O41/E32)*D32</f>
         <v>7.8689999999999998</v>
       </c>
-      <c r="I41" s="110">
+      <c r="I41" s="93">
         <f>(P41/E32)*D32</f>
         <v>4.9880000000000004</v>
       </c>
-      <c r="J41" s="110">
+      <c r="J41" s="93">
         <f>(Q41/E32)*D32</f>
         <v>8.5569999999999986</v>
       </c>
-      <c r="L41" s="110">
+      <c r="L41" s="93">
         <f t="shared" ref="L41:Q43" si="2">L23</f>
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="M41" s="110">
+      <c r="M41" s="93">
         <f t="shared" si="2"/>
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="N41" s="110">
+      <c r="N41" s="93">
         <f t="shared" si="2"/>
         <v>1.66E-2</v>
       </c>
-      <c r="O41" s="110">
+      <c r="O41" s="93">
         <f t="shared" si="2"/>
         <v>1.83E-2</v>
       </c>
-      <c r="P41" s="110">
+      <c r="P41" s="93">
         <f t="shared" si="2"/>
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="Q41" s="110">
+      <c r="Q41" s="93">
         <f t="shared" si="2"/>
         <v>1.9899999999999998E-2</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C42" s="109"/>
-      <c r="D42" s="112" t="s">
+      <c r="C42" s="117"/>
+      <c r="D42" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="114">
+      <c r="E42" s="97">
         <f>(L42/E32)*D32</f>
         <v>0.55899999999999983</v>
       </c>
-      <c r="F42" s="114">
+      <c r="F42" s="97">
         <f>(M42/E32)*D32</f>
         <v>0.55899999999999983</v>
       </c>
-      <c r="G42" s="114">
+      <c r="G42" s="97">
         <f>(N42/E32)*D32</f>
         <v>0.12899999999999992</v>
       </c>
-      <c r="H42" s="114">
+      <c r="H42" s="97">
         <f>(O42/E32)*D32</f>
         <v>3.0529999999999995</v>
       </c>
-      <c r="I42" s="114">
+      <c r="I42" s="97">
         <f>(P42/E32)*D32</f>
         <v>1.2039999999999997</v>
       </c>
-      <c r="J42" s="114">
+      <c r="J42" s="97">
         <f>(Q42/E32)*D32</f>
         <v>1.2470000000000001</v>
       </c>
-      <c r="L42" s="112">
+      <c r="L42" s="95">
         <f t="shared" si="2"/>
         <v>1.2999999999999997E-3</v>
       </c>
-      <c r="M42" s="112">
+      <c r="M42" s="95">
         <f t="shared" si="2"/>
         <v>1.2999999999999997E-3</v>
       </c>
-      <c r="N42" s="112">
+      <c r="N42" s="95">
         <f t="shared" si="2"/>
         <v>2.9999999999999981E-4</v>
       </c>
-      <c r="O42" s="112">
+      <c r="O42" s="95">
         <f t="shared" si="2"/>
         <v>7.0999999999999995E-3</v>
       </c>
-      <c r="P42" s="112">
+      <c r="P42" s="95">
         <f t="shared" si="2"/>
         <v>2.7999999999999991E-3</v>
       </c>
-      <c r="Q42" s="112">
+      <c r="Q42" s="95">
         <f t="shared" si="2"/>
         <v>2.9000000000000002E-3</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C43" s="109"/>
-      <c r="D43" s="120" t="s">
+      <c r="C43" s="117"/>
+      <c r="D43" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="110">
+      <c r="E43" s="93">
         <f>(L43/E32)*D32</f>
         <v>0.51599999999999968</v>
       </c>
-      <c r="F43" s="110">
+      <c r="F43" s="93">
         <f>(M43/E32)*D32</f>
         <v>0.77399999999999991</v>
       </c>
-      <c r="G43" s="110">
+      <c r="G43" s="93">
         <f>(N43/E32)*D32</f>
         <v>1.075</v>
       </c>
-      <c r="H43" s="110">
+      <c r="H43" s="93">
         <f>(O43/E32)*D32</f>
         <v>4.0420000000000007</v>
       </c>
-      <c r="I43" s="110">
+      <c r="I43" s="93">
         <f>(P43/E32)*D32</f>
         <v>1.5049999999999999</v>
       </c>
-      <c r="J43" s="110">
+      <c r="J43" s="93">
         <f>(Q43/E32)*D32</f>
         <v>1.72</v>
       </c>
-      <c r="L43" s="110">
+      <c r="L43" s="93">
         <f t="shared" si="2"/>
         <v>1.1999999999999992E-3</v>
       </c>
-      <c r="M43" s="110">
+      <c r="M43" s="93">
         <f t="shared" si="2"/>
         <v>1.7999999999999997E-3</v>
       </c>
-      <c r="N43" s="110">
+      <c r="N43" s="93">
         <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="O43" s="110">
+      <c r="O43" s="93">
         <f t="shared" si="2"/>
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="P43" s="110">
+      <c r="P43" s="93">
         <f t="shared" si="2"/>
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="Q43" s="110">
+      <c r="Q43" s="93">
         <f t="shared" si="2"/>
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C44" s="109"/>
-      <c r="D44" s="114" t="s">
+      <c r="C44" s="117"/>
+      <c r="D44" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="114">
+      <c r="E44" s="97">
         <f>(L44/E32)*D32</f>
         <v>0.4730000000000002</v>
       </c>
-      <c r="F44" s="114" t="s">
+      <c r="F44" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="114">
+      <c r="G44" s="97">
         <f>(N44/E32)*D32</f>
         <v>13.845999999999997</v>
       </c>
-      <c r="H44" s="114">
+      <c r="H44" s="97">
         <f>(O44/E32)*D32</f>
         <v>13.888999999999998</v>
       </c>
-      <c r="I44" s="114" t="s">
+      <c r="I44" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="114">
+      <c r="J44" s="97">
         <f>(Q44/E32)*D32</f>
         <v>15.264999999999999</v>
       </c>
-      <c r="L44" s="112">
+      <c r="L44" s="95">
         <f t="shared" ref="L44:Q44" si="3">L27</f>
         <v>1.1000000000000005E-3</v>
       </c>
-      <c r="M44" s="112" t="str">
+      <c r="M44" s="95" t="str">
         <f t="shared" si="3"/>
         <v>N/A</v>
       </c>
-      <c r="N44" s="112">
+      <c r="N44" s="95">
         <f t="shared" si="3"/>
         <v>3.2199999999999993E-2</v>
       </c>
-      <c r="O44" s="112">
+      <c r="O44" s="95">
         <f t="shared" si="3"/>
         <v>3.2299999999999995E-2</v>
       </c>
-      <c r="P44" s="112" t="str">
+      <c r="P44" s="95" t="str">
         <f t="shared" si="3"/>
         <v>N/A</v>
       </c>
-      <c r="Q44" s="112">
+      <c r="Q44" s="95">
         <f t="shared" si="3"/>
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="115"/>
-      <c r="L45" s="119"/>
-      <c r="M45" s="119"/>
-      <c r="N45" s="119"/>
-      <c r="O45" s="119"/>
-      <c r="P45" s="119"/>
-      <c r="Q45" s="119"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="98"/>
+      <c r="L45" s="118"/>
+      <c r="M45" s="118"/>
+      <c r="N45" s="118"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="118"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46"/>
@@ -7001,73 +8255,101 @@
       <c r="Q46"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K47" s="98"/>
+      <c r="K47" s="87"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K48" s="98"/>
+      <c r="K48" s="87"/>
     </row>
     <row r="49" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K49" s="98"/>
+      <c r="K49" s="87"/>
     </row>
     <row r="50" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K50" s="98"/>
+      <c r="K50" s="87"/>
     </row>
     <row r="51" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K51" s="98"/>
+      <c r="K51" s="87"/>
     </row>
     <row r="52" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K52" s="98"/>
+      <c r="K52" s="87"/>
     </row>
     <row r="53" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K53" s="98"/>
+      <c r="K53" s="87"/>
     </row>
     <row r="54" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K54" s="98"/>
+      <c r="K54" s="87"/>
     </row>
     <row r="55" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K55" s="98"/>
+      <c r="K55" s="87"/>
     </row>
     <row r="56" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K56" s="98"/>
+      <c r="K56" s="87"/>
     </row>
     <row r="57" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K57" s="98"/>
+      <c r="K57" s="87"/>
     </row>
     <row r="58" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K58" s="98"/>
+      <c r="K58" s="87"/>
     </row>
     <row r="59" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K59" s="98"/>
+      <c r="K59" s="87"/>
     </row>
     <row r="60" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K60" s="98"/>
+      <c r="K60" s="87"/>
     </row>
     <row r="61" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K61" s="98"/>
+      <c r="K61" s="87"/>
     </row>
     <row r="62" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K62" s="98"/>
+      <c r="K62" s="87"/>
     </row>
     <row r="63" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K63" s="98"/>
+      <c r="K63" s="87"/>
     </row>
     <row r="64" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K64" s="98"/>
+      <c r="K64" s="87"/>
     </row>
     <row r="65" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K65" s="98"/>
+      <c r="K65" s="87"/>
     </row>
     <row r="66" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K66" s="98"/>
+      <c r="K66" s="87"/>
     </row>
     <row r="67" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K67" s="98"/>
+      <c r="K67" s="87"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K68" s="98"/>
+      <c r="K68" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="L34:Q34"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="L40:Q40"/>
     <mergeCell ref="C41:C44"/>
@@ -7077,34 +8359,6 @@
     <mergeCell ref="H35:J35"/>
     <mergeCell ref="L35:N35"/>
     <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7114,8 +8368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652B6ADA-0F3E-49A0-9BBD-FCC97298CB3A}">
   <dimension ref="A2:U68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q12" activeCellId="3" sqref="L12 N12 O12 Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7148,16 +8402,16 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="93" t="s">
+      <c r="L2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="86" t="s">
+      <c r="S2" s="112" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="14">
@@ -7169,34 +8423,34 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89" t="s">
+      <c r="D3" s="109"/>
+      <c r="E3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90" t="s">
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="90" t="s">
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
       <c r="R3" s="9"/>
-      <c r="S3" s="86"/>
+      <c r="S3" s="112"/>
       <c r="T3" s="14">
         <v>1000</v>
       </c>
@@ -7206,7 +8460,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
-      <c r="B4" s="87"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
@@ -7257,7 +8511,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="105" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -7310,7 +8564,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="91"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
@@ -7361,7 +8615,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="91"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="20" t="s">
         <v>12</v>
       </c>
@@ -7429,15 +8683,15 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="88" t="s">
+      <c r="S8" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="105" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -7484,13 +8738,13 @@
         <v>23.4</v>
       </c>
       <c r="R9" s="9"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" s="91"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="22" t="s">
         <v>11</v>
       </c>
@@ -7538,14 +8792,14 @@
       <c r="S10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="T10" s="87"/>
+      <c r="T10" s="113"/>
       <c r="U10" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="91"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="28" t="s">
         <v>16</v>
       </c>
@@ -7593,14 +8847,14 @@
       <c r="S11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="T11" s="87"/>
+      <c r="T11" s="113"/>
       <c r="U11" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="91"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="22" t="s">
         <v>12</v>
       </c>
@@ -7648,7 +8902,7 @@
       <c r="S12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="87"/>
+      <c r="T12" s="113"/>
       <c r="U12" s="27" t="s">
         <v>33</v>
       </c>
@@ -7673,7 +8927,7 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="9"/>
       <c r="S13" s="26"/>
-      <c r="T13" s="87"/>
+      <c r="T13" s="113"/>
       <c r="U13" s="27"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -7695,10 +8949,10 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="9"/>
-      <c r="S14" s="88" t="s">
+      <c r="S14" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="88"/>
+      <c r="T14" s="109"/>
       <c r="U14" s="27" t="s">
         <v>35</v>
       </c>
@@ -7706,25 +8960,25 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="92" t="s">
+      <c r="L15" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -7733,29 +8987,29 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89" t="s">
+      <c r="D16" s="109"/>
+      <c r="E16" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90" t="s">
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="93" t="s">
+      <c r="L16" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
@@ -7805,7 +9059,7 @@
       </c>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -7850,7 +9104,7 @@
       </c>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C19" s="91"/>
+      <c r="C19" s="105"/>
       <c r="D19" s="12" t="s">
         <v>11</v>
       </c>
@@ -7893,28 +9147,28 @@
       </c>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="91"/>
-      <c r="D20" s="92" t="s">
+      <c r="C20" s="105"/>
+      <c r="D20" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="92" t="s">
+      <c r="L20" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="92"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="106"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="91"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="20" t="s">
         <v>12</v>
       </c>
@@ -7966,15 +9220,15 @@
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="105" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="20" t="s">
@@ -8019,7 +9273,7 @@
       </c>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C24" s="91"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="22" t="s">
         <v>11</v>
       </c>
@@ -8062,7 +9316,7 @@
       </c>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="91"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="22" t="s">
         <v>16</v>
       </c>
@@ -8105,28 +9359,28 @@
       </c>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="91"/>
-      <c r="D26" s="92" t="s">
+      <c r="C26" s="105"/>
+      <c r="D26" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
       <c r="K26" s="16"/>
-      <c r="L26" s="92" t="s">
+      <c r="L26" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C27" s="91"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="20" t="s">
         <v>12</v>
       </c>
@@ -8178,12 +9432,12 @@
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
@@ -8203,10 +9457,10 @@
       <c r="Q29" s="15"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="92" t="s">
+      <c r="D30" s="106" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="30" t="s">
@@ -8283,66 +9537,66 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="92" t="s">
+      <c r="L33" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="92"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="106"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
       <c r="K34" s="9"/>
-      <c r="L34" s="93" t="s">
+      <c r="L34" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="108"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="89" t="s">
+      <c r="D35" s="109"/>
+      <c r="E35" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="90" t="s">
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="89" t="s">
+      <c r="L35" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="90" t="s">
+      <c r="M35" s="110"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
@@ -8392,7 +9646,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="91" t="s">
+      <c r="C37" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="20" t="s">
@@ -8439,7 +9693,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="91"/>
+      <c r="C38" s="105"/>
       <c r="D38" s="12" t="s">
         <v>11</v>
       </c>
@@ -8484,7 +9738,7 @@
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="91"/>
+      <c r="C39" s="105"/>
       <c r="D39" s="20" t="s">
         <v>12</v>
       </c>
@@ -8538,17 +9792,17 @@
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="94"/>
-      <c r="O40" s="94"/>
-      <c r="P40" s="94"/>
-      <c r="Q40" s="94"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="107"/>
+      <c r="O40" s="107"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="107"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="91" t="s">
+      <c r="C41" s="105" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -8595,7 +9849,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="91"/>
+      <c r="C42" s="105"/>
       <c r="D42" s="22" t="s">
         <v>11</v>
       </c>
@@ -8640,7 +9894,7 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="91"/>
+      <c r="C43" s="105"/>
       <c r="D43" s="53" t="s">
         <v>16</v>
       </c>
@@ -8685,7 +9939,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="91"/>
+      <c r="C44" s="105"/>
       <c r="D44" s="54" t="s">
         <v>12</v>
       </c>
@@ -8739,12 +9993,12 @@
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
       <c r="K45" s="9"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="94"/>
-      <c r="Q45" s="94"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="107"/>
+      <c r="N45" s="107"/>
+      <c r="O45" s="107"/>
+      <c r="P45" s="107"/>
+      <c r="Q45" s="107"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
@@ -8865,6 +10119,38 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="L34:Q34"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="L40:Q40"/>
     <mergeCell ref="C41:C44"/>
@@ -8874,38 +10160,6 @@
     <mergeCell ref="H35:J35"/>
     <mergeCell ref="L35:N35"/>
     <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
